--- a/biology/Médecine/RECQL4/RECQL4.xlsx
+++ b/biology/Médecine/RECQL4/RECQL4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le RECQL4 est une hélicase à acide désoxyribonucléique[5] dont le gène est le RECQL4 situé sur le chromosome 8 humain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le RECQL4 est une hélicase à acide désoxyribonucléique dont le gène est le RECQL4 situé sur le chromosome 8 humain.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La mutation du gène RECQL4 est responsable de plusieurs maladies :
-une mutation du gène donnant une protéine non fonctionnelle serait responsable des deux tiers des patients atteints d'un syndrome de Rothmund-Thomson[6], associant atteinte cutanée et risque de cancers ;
-le syndrome Rapadilano, syndrome polymalformatif, serait causé par d'autres mutations de ce même gène[7] ;
-le syndrome de Baller-Gerold est un syndrome proche[8].</t>
+une mutation du gène donnant une protéine non fonctionnelle serait responsable des deux tiers des patients atteints d'un syndrome de Rothmund-Thomson, associant atteinte cutanée et risque de cancers ;
+le syndrome Rapadilano, syndrome polymalformatif, serait causé par d'autres mutations de ce même gène ;
+le syndrome de Baller-Gerold est un syndrome proche.</t>
         </is>
       </c>
     </row>
